--- a/Income/CL_inc.xlsx
+++ b/Income/CL_inc.xlsx
@@ -1980,10 +1980,8 @@
           <t>Gross Margin</t>
         </is>
       </c>
-      <c r="B15" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B15" s="0" t="n">
+        <v>0.6091</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>0.6077</v>
@@ -2109,10 +2107,8 @@
           <t>EBIT Margin</t>
         </is>
       </c>
-      <c r="B16" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B16" s="0" t="n">
+        <v>0.2355</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>0.2359</v>
@@ -2238,10 +2234,8 @@
           <t>EBT margin</t>
         </is>
       </c>
-      <c r="B17" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B17" s="0" t="n">
+        <v>0.2219</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>0.2214</v>
@@ -2367,10 +2361,8 @@
           <t>Net Profit Margin</t>
         </is>
       </c>
-      <c r="B18" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B18" s="0" t="n">
+        <v>0.1592</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>0.1636</v>
@@ -2496,10 +2488,8 @@
           <t>Free Cash Flow Margin</t>
         </is>
       </c>
-      <c r="B19" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B19" s="0" t="n">
+        <v>0.1863</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>0.2009</v>
@@ -2625,10 +2615,8 @@
           <t>EBITDA</t>
         </is>
       </c>
-      <c r="B20" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B20" s="0" t="n">
+        <v>4547000000.0</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>4535000000.0</v>
@@ -3516,10 +3504,8 @@
           <t>EBITDA Margin</t>
         </is>
       </c>
-      <c r="B27" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B27" s="0" t="n">
+        <v>0.0</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>0.2753</v>
@@ -3645,10 +3631,8 @@
           <t>Operating Cash Flow Margin</t>
         </is>
       </c>
-      <c r="B28" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B28" s="0" t="n">
+        <v>0.2123</v>
       </c>
       <c r="C28" s="0" t="n">
         <v>0.2258</v>
